--- a/data_curso/Modulo_3/metadatosSARS.xlsx
+++ b/data_curso/Modulo_3/metadatosSARS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harui\Documents\ins\00_Wellcome\tipificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85921E63-94A0-410A-8EFC-52D6F3B2E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3467FECC-C1B5-42F2-B67F-23A78EB10916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16996" windowHeight="9976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="16785" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="176">
   <si>
     <t>fecha</t>
   </si>
@@ -414,6 +414,156 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>clado</t>
+  </si>
+  <si>
+    <t>linaje</t>
+  </si>
+  <si>
+    <t>23G</t>
+  </si>
+  <si>
+    <t>GK.1.6</t>
+  </si>
+  <si>
+    <t>23D</t>
+  </si>
+  <si>
+    <t>EG.5</t>
+  </si>
+  <si>
+    <t>EG.5.2</t>
+  </si>
+  <si>
+    <t>23H</t>
+  </si>
+  <si>
+    <t>HK.3</t>
+  </si>
+  <si>
+    <t>23F</t>
+  </si>
+  <si>
+    <t>HV.1</t>
+  </si>
+  <si>
+    <t>23A</t>
+  </si>
+  <si>
+    <t>GN.1.1</t>
+  </si>
+  <si>
+    <t>GK.1.6.1</t>
+  </si>
+  <si>
+    <t>EG.5.1.1</t>
+  </si>
+  <si>
+    <t>FL.1.5.1</t>
+  </si>
+  <si>
+    <t>JD.1.1</t>
+  </si>
+  <si>
+    <t>recombinant</t>
+  </si>
+  <si>
+    <t>XCL</t>
+  </si>
+  <si>
+    <t>HK.13</t>
+  </si>
+  <si>
+    <t>XBB.1.5.72</t>
+  </si>
+  <si>
+    <t>HV.1.1</t>
+  </si>
+  <si>
+    <t>FL.15.1.1</t>
+  </si>
+  <si>
+    <t>HK.26</t>
+  </si>
+  <si>
+    <t>JD.1.1.1</t>
+  </si>
+  <si>
+    <t>GN.1</t>
+  </si>
+  <si>
+    <t>JG.3</t>
+  </si>
+  <si>
+    <t>EG.5.1</t>
+  </si>
+  <si>
+    <t>KC.1</t>
+  </si>
+  <si>
+    <t>FD.5.1</t>
+  </si>
+  <si>
+    <t>23I</t>
+  </si>
+  <si>
+    <t>JN.1</t>
+  </si>
+  <si>
+    <t>JN.1.1</t>
+  </si>
+  <si>
+    <t>HK.3.2</t>
+  </si>
+  <si>
+    <t>XBB.1.5.109</t>
+  </si>
+  <si>
+    <t>JD.1.2</t>
+  </si>
+  <si>
+    <t>EG.5.1.3</t>
+  </si>
+  <si>
+    <t>23E</t>
+  </si>
+  <si>
+    <t>XBB.2.3</t>
+  </si>
+  <si>
+    <t>JD.1</t>
+  </si>
+  <si>
+    <t>XBB.1.5.102</t>
+  </si>
+  <si>
+    <t>XBB.1.5</t>
+  </si>
+  <si>
+    <t>23B</t>
+  </si>
+  <si>
+    <t>JF.1.1</t>
+  </si>
+  <si>
+    <t>EG.5.1.6</t>
+  </si>
+  <si>
+    <t>XBB.1.9.1</t>
+  </si>
+  <si>
+    <t>EG.11</t>
+  </si>
+  <si>
+    <t>XDK</t>
+  </si>
+  <si>
+    <t>GJ.1</t>
+  </si>
+  <si>
+    <t>HR.1.1</t>
   </si>
 </sst>
 </file>
@@ -732,11 +882,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -744,7 +892,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -769,8 +917,14 @@
       <c r="H1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -795,8 +949,14 @@
       <c r="H2">
         <v>-75</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -821,8 +981,14 @@
       <c r="H3">
         <v>-73</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -847,8 +1013,14 @@
       <c r="H4">
         <v>-76</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -873,8 +1045,14 @@
       <c r="H5">
         <v>-75</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -899,8 +1077,14 @@
       <c r="H6">
         <v>-73</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -925,8 +1109,14 @@
       <c r="H7">
         <v>-76</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -951,8 +1141,14 @@
       <c r="H8">
         <v>-73</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -977,8 +1173,14 @@
       <c r="H9">
         <v>-75</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1003,8 +1205,14 @@
       <c r="H10">
         <v>-73</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1029,8 +1237,14 @@
       <c r="H11">
         <v>-75</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1055,8 +1269,14 @@
       <c r="H12">
         <v>-74</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1081,8 +1301,14 @@
       <c r="H13">
         <v>-75</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1107,8 +1333,14 @@
       <c r="H14">
         <v>-75</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1133,8 +1365,14 @@
       <c r="H15">
         <v>-73</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1159,8 +1397,14 @@
       <c r="H16">
         <v>-74</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1185,8 +1429,14 @@
       <c r="H17">
         <v>-75</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1211,8 +1461,14 @@
       <c r="H18">
         <v>-75</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1237,8 +1493,14 @@
       <c r="H19">
         <v>-75</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1263,8 +1525,14 @@
       <c r="H20">
         <v>-73</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1289,8 +1557,14 @@
       <c r="H21">
         <v>-73</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1315,8 +1589,14 @@
       <c r="H22">
         <v>-74</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1341,8 +1621,14 @@
       <c r="H23">
         <v>-73</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1367,8 +1653,14 @@
       <c r="H24">
         <v>-76</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1393,8 +1685,14 @@
       <c r="H25">
         <v>-76</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1419,8 +1717,14 @@
       <c r="H26">
         <v>-75</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1445,8 +1749,14 @@
       <c r="H27">
         <v>-75</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1471,8 +1781,14 @@
       <c r="H28">
         <v>-75</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1497,8 +1813,14 @@
       <c r="H29">
         <v>-75</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1523,8 +1845,14 @@
       <c r="H30">
         <v>-74</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1549,8 +1877,14 @@
       <c r="H31">
         <v>-76</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1575,8 +1909,14 @@
       <c r="H32">
         <v>-74</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1601,8 +1941,14 @@
       <c r="H33">
         <v>-75</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1627,8 +1973,14 @@
       <c r="H34">
         <v>-73</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1653,8 +2005,14 @@
       <c r="H35">
         <v>-75</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1679,8 +2037,14 @@
       <c r="H36">
         <v>-74</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1705,8 +2069,14 @@
       <c r="H37">
         <v>-75</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I37" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1731,8 +2101,14 @@
       <c r="H38">
         <v>-75</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1757,8 +2133,14 @@
       <c r="H39">
         <v>-73</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1783,8 +2165,14 @@
       <c r="H40">
         <v>-74</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I40" t="s">
+        <v>128</v>
+      </c>
+      <c r="J40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1809,8 +2197,14 @@
       <c r="H41">
         <v>-76</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I41" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1835,8 +2229,14 @@
       <c r="H42">
         <v>-74</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I42" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1861,8 +2261,14 @@
       <c r="H43">
         <v>-75</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I43" t="s">
+        <v>137</v>
+      </c>
+      <c r="J43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1887,8 +2293,14 @@
       <c r="H44">
         <v>-75</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I44" t="s">
+        <v>156</v>
+      </c>
+      <c r="J44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1913,8 +2325,14 @@
       <c r="H45">
         <v>-76</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1939,8 +2357,14 @@
       <c r="H46">
         <v>-74</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>156</v>
+      </c>
+      <c r="J46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1965,8 +2389,14 @@
       <c r="H47">
         <v>-76</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I47" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1991,8 +2421,14 @@
       <c r="H48">
         <v>-76</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I48" t="s">
+        <v>137</v>
+      </c>
+      <c r="J48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2017,8 +2453,14 @@
       <c r="H49">
         <v>-74</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -2043,8 +2485,14 @@
       <c r="H50">
         <v>-76</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I50" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2069,8 +2517,14 @@
       <c r="H51">
         <v>-73</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2095,8 +2549,14 @@
       <c r="H52">
         <v>-74</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I52" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2121,8 +2581,14 @@
       <c r="H53">
         <v>-75</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I53" t="s">
+        <v>137</v>
+      </c>
+      <c r="J53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -2147,8 +2613,14 @@
       <c r="H54">
         <v>-75</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I54" t="s">
+        <v>135</v>
+      </c>
+      <c r="J54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2173,8 +2645,14 @@
       <c r="H55">
         <v>-76</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2199,8 +2677,14 @@
       <c r="H56">
         <v>-74</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I56" t="s">
+        <v>135</v>
+      </c>
+      <c r="J56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -2225,8 +2709,14 @@
       <c r="H57">
         <v>-73</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I57" t="s">
+        <v>135</v>
+      </c>
+      <c r="J57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -2251,8 +2741,14 @@
       <c r="H58">
         <v>-73</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I58" t="s">
+        <v>135</v>
+      </c>
+      <c r="J58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -2277,8 +2773,14 @@
       <c r="H59">
         <v>-74</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I59" t="s">
+        <v>163</v>
+      </c>
+      <c r="J59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -2303,8 +2805,14 @@
       <c r="H60">
         <v>-75</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I60" t="s">
+        <v>137</v>
+      </c>
+      <c r="J60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2329,8 +2837,14 @@
       <c r="H61">
         <v>-75</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I61" t="s">
+        <v>137</v>
+      </c>
+      <c r="J61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -2355,8 +2869,14 @@
       <c r="H62">
         <v>-74</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I62" t="s">
+        <v>137</v>
+      </c>
+      <c r="J62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2381,8 +2901,14 @@
       <c r="H63">
         <v>-74</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I63" t="s">
+        <v>137</v>
+      </c>
+      <c r="J63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -2407,8 +2933,14 @@
       <c r="H64">
         <v>-73</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I64" t="s">
+        <v>135</v>
+      </c>
+      <c r="J64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -2433,8 +2965,14 @@
       <c r="H65">
         <v>-74</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I65" t="s">
+        <v>137</v>
+      </c>
+      <c r="J65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -2459,8 +2997,14 @@
       <c r="H66">
         <v>-74</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I66" t="s">
+        <v>156</v>
+      </c>
+      <c r="J66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -2485,8 +3029,14 @@
       <c r="H67">
         <v>-75</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I67" t="s">
+        <v>135</v>
+      </c>
+      <c r="J67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2511,8 +3061,14 @@
       <c r="H68">
         <v>-75</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I68" t="s">
+        <v>137</v>
+      </c>
+      <c r="J68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2537,8 +3093,14 @@
       <c r="H69">
         <v>-73</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I69" t="s">
+        <v>135</v>
+      </c>
+      <c r="J69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2563,8 +3125,14 @@
       <c r="H70">
         <v>-75</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I70" t="s">
+        <v>137</v>
+      </c>
+      <c r="J70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -2589,8 +3157,14 @@
       <c r="H71">
         <v>-75</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I71" t="s">
+        <v>130</v>
+      </c>
+      <c r="J71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -2615,8 +3189,14 @@
       <c r="H72">
         <v>-74</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I72" t="s">
+        <v>168</v>
+      </c>
+      <c r="J72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -2641,8 +3221,14 @@
       <c r="H73">
         <v>-75</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I73" t="s">
+        <v>130</v>
+      </c>
+      <c r="J73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -2667,8 +3253,14 @@
       <c r="H74">
         <v>-75</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I74" t="s">
+        <v>137</v>
+      </c>
+      <c r="J74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -2693,8 +3285,14 @@
       <c r="H75">
         <v>-75</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I75" t="s">
+        <v>137</v>
+      </c>
+      <c r="J75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -2719,8 +3317,14 @@
       <c r="H76">
         <v>-75</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I76" t="s">
+        <v>137</v>
+      </c>
+      <c r="J76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -2745,8 +3349,14 @@
       <c r="H77">
         <v>-75</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I77" t="s">
+        <v>135</v>
+      </c>
+      <c r="J77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -2771,8 +3381,14 @@
       <c r="H78">
         <v>-75</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I78" t="s">
+        <v>135</v>
+      </c>
+      <c r="J78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -2797,8 +3413,14 @@
       <c r="H79">
         <v>-75</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I79" t="s">
+        <v>137</v>
+      </c>
+      <c r="J79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -2823,8 +3445,14 @@
       <c r="H80">
         <v>-75</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I80" t="s">
+        <v>137</v>
+      </c>
+      <c r="J80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -2849,8 +3477,14 @@
       <c r="H81">
         <v>-75</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I81" t="s">
+        <v>135</v>
+      </c>
+      <c r="J81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -2875,8 +3509,14 @@
       <c r="H82">
         <v>-75</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I82" t="s">
+        <v>137</v>
+      </c>
+      <c r="J82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -2901,8 +3541,14 @@
       <c r="H83">
         <v>-73</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I83" t="s">
+        <v>135</v>
+      </c>
+      <c r="J83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -2927,8 +3573,14 @@
       <c r="H84">
         <v>-75</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I84" t="s">
+        <v>137</v>
+      </c>
+      <c r="J84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -2953,8 +3605,14 @@
       <c r="H85">
         <v>-74</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I85" t="s">
+        <v>130</v>
+      </c>
+      <c r="J85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -2979,8 +3637,14 @@
       <c r="H86">
         <v>-73</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I86" t="s">
+        <v>168</v>
+      </c>
+      <c r="J86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -3005,8 +3669,14 @@
       <c r="H87">
         <v>-74</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I87" t="s">
+        <v>130</v>
+      </c>
+      <c r="J87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -3031,8 +3701,14 @@
       <c r="H88">
         <v>-75</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I88" t="s">
+        <v>137</v>
+      </c>
+      <c r="J88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -3057,8 +3733,14 @@
       <c r="H89">
         <v>-75</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I89" t="s">
+        <v>130</v>
+      </c>
+      <c r="J89" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -3083,8 +3765,14 @@
       <c r="H90">
         <v>-73</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I90" t="s">
+        <v>137</v>
+      </c>
+      <c r="J90" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -3109,8 +3797,14 @@
       <c r="H91">
         <v>-75</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I91" t="s">
+        <v>137</v>
+      </c>
+      <c r="J91" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -3135,8 +3829,14 @@
       <c r="H92">
         <v>-74</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I92" t="s">
+        <v>137</v>
+      </c>
+      <c r="J92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -3161,8 +3861,14 @@
       <c r="H93">
         <v>-75</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I93" t="s">
+        <v>137</v>
+      </c>
+      <c r="J93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -3187,8 +3893,14 @@
       <c r="H94">
         <v>-75</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I94" t="s">
+        <v>143</v>
+      </c>
+      <c r="J94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -3213,8 +3925,14 @@
       <c r="H95">
         <v>-75</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I95" t="s">
+        <v>156</v>
+      </c>
+      <c r="J95" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -3239,8 +3957,14 @@
       <c r="H96">
         <v>-75</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I96" t="s">
+        <v>137</v>
+      </c>
+      <c r="J96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -3265,8 +3989,14 @@
       <c r="H97">
         <v>-75</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I97" t="s">
+        <v>135</v>
+      </c>
+      <c r="J97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -3291,8 +4021,14 @@
       <c r="H98">
         <v>-73</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I98" t="s">
+        <v>137</v>
+      </c>
+      <c r="J98" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>107</v>
       </c>
@@ -3317,8 +4053,14 @@
       <c r="H99">
         <v>-76</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -3343,8 +4085,14 @@
       <c r="H100">
         <v>-75</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I100" t="s">
+        <v>135</v>
+      </c>
+      <c r="J100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -3369,8 +4117,14 @@
       <c r="H101">
         <v>-74</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I101" t="s">
+        <v>156</v>
+      </c>
+      <c r="J101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -3395,8 +4149,14 @@
       <c r="H102">
         <v>-74</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I102" t="s">
+        <v>156</v>
+      </c>
+      <c r="J102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -3421,8 +4181,14 @@
       <c r="H103">
         <v>-74</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I103" t="s">
+        <v>156</v>
+      </c>
+      <c r="J103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -3447,8 +4213,14 @@
       <c r="H104">
         <v>-75</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+      <c r="J104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -3473,8 +4245,14 @@
       <c r="H105">
         <v>-76</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+      <c r="J105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -3499,8 +4277,14 @@
       <c r="H106">
         <v>-75</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I106" t="s">
+        <v>163</v>
+      </c>
+      <c r="J106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -3524,6 +4308,12 @@
       </c>
       <c r="H107">
         <v>-74</v>
+      </c>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+      <c r="J107" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
